--- a/data/trans_bre/P26A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-78,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +720,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,20 +812,40 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>235,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -768,17 +860,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 12,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,12 +932,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,17 +947,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -855,7 +967,27 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,12 +1000,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +1015,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,32 +1140,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 337,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,03; 238,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1175,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-92,3; 121,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-34,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-64,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1280,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1305,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-87,72; 215,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1102,6 +1314,26 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1420,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,19; 198,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1202,6 +1454,26 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 80,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 158,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 297,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-70,04; 170,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
